--- a/artfynd/A 979-2026 artfynd.xlsx
+++ b/artfynd/A 979-2026 artfynd.xlsx
@@ -1217,7 +1217,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131154323</v>
+        <v>131154313</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445033</v>
+        <v>445053</v>
       </c>
       <c r="R6" t="n">
-        <v>7053229</v>
+        <v>7053130</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,6 +1293,11 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1318,9 +1323,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1338,7 +1348,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131154313</v>
+        <v>131154323</v>
       </c>
       <c r="B7" t="n">
         <v>79243</v>
@@ -1376,10 +1386,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445053</v>
+        <v>445033</v>
       </c>
       <c r="R7" t="n">
-        <v>7053130</v>
+        <v>7053229</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1414,11 +1424,6 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1444,14 +1449,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>

--- a/artfynd/A 979-2026 artfynd.xlsx
+++ b/artfynd/A 979-2026 artfynd.xlsx
@@ -818,7 +818,7 @@
         <v>131154317</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>131154319</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131154313</v>
+        <v>131154323</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445053</v>
+        <v>445033</v>
       </c>
       <c r="R6" t="n">
-        <v>7053130</v>
+        <v>7053229</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1293,11 +1293,6 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1323,14 +1318,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1348,10 +1338,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131154323</v>
+        <v>131154313</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1386,10 +1376,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445033</v>
+        <v>445053</v>
       </c>
       <c r="R7" t="n">
-        <v>7053229</v>
+        <v>7053130</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1424,6 +1414,11 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1449,9 +1444,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1472,7 +1472,7 @@
         <v>131154315</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>131154324</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>131154314</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>131154316</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>131154322</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
         <v>131154318</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>131154321</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>131154320</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>131187652</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>131187651</v>
       </c>
       <c r="B22" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>131187650</v>
       </c>
       <c r="B23" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
